--- a/Quick link references.xlsx
+++ b/Quick link references.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratik Panchal\Desktop\Share_Market\ExcelFeed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D919A4D1-20DD-4676-9656-02C5E05FFE3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EDAB8C-EBA1-4136-BC63-ADAE8A7D75DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>Business</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>Price of SBI on previous budgets</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Profit &amp;amp; Loss</t>
+  </si>
+  <si>
+    <t>Chairman&amp;#039;s Speech</t>
   </si>
 </sst>
 </file>
@@ -494,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:E51"/>
+  <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +518,14 @@
     <col min="5" max="5" width="62.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
@@ -526,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" ref="E5:E51" si="0">"'" &amp; B5 &amp; "': '" &amp;C5 &amp; "',"</f>
+        <f t="shared" ref="E5:E50" si="0">"'" &amp; B5 &amp; "': '" &amp;C5 &amp; "',"</f>
         <v>'Earnings': 'Earnings',</v>
       </c>
     </row>
@@ -787,11 +807,11 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>'Profit &amp; Loss': 'Profit &amp; Loss',</v>
+        <v>'Profit &amp; Loss': 'Profit &amp;amp; Loss',</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -883,11 +903,11 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>'Chairman's Speech': 'Chairman's Speech',</v>
+        <v>'Chairman's Speech': 'Chairman&amp;#039;s Speech',</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
